--- a/biology/Médecine/François_Lelord/François_Lelord.xlsx
+++ b/biology/Médecine/François_Lelord/François_Lelord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Lelord</t>
+          <t>François_Lelord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Lelord, né le 22 juin 1953 à Paris, est un psychiatre et écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Lelord</t>
+          <t>François_Lelord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François Lelord est le fils du pédopsychiatre Gilbert Lelord.
 Il a fait des études de médecine et de psychiatrie. Après avoir obtenu son doctorat en 1985 de l'Université François Rabelais à Tours, il part pour un an à Los Angeles en tant que chercheur post-doctoral à l'université de Californie. De 1986 à 1988, il y est chef de clinique et assistant des hôpitaux à l'hôpital Necker université Paris Descartes.
 Conjointement avec son activité de psychiatre libéral, il travaille à partir de 1990 comme consultant dans les domaines de la gestion du stress et du bien-être au travail avec ses collègues Patrick Légeron et Christophe André, et intervient dans de grandes entreprises publiques et privée.
 Son premier livre Les contes d'un psychiatre ordinaire paraît en février 1993 aux Éditions Odile Jacob, suivis par trois essais avec Christophe André chez le même éditeur (Comment gérer les personnalités difficiles, L'estime de Soi, La force des émotions).
-En août 2002, il publie son plus grand succès : Le voyage d'Hector ou la recherche du bonheur, publié à plus de deux millions d'exemplaires dans le monde[1],[2]. Suivi par plusieurs autres ouvrages avec Hector comme personnage principal[3],[4].
-En 2014, ce livre a été adapté au cinéma : Hector et la Recherche du bonheur, par Peter Chelsom, avec Simon Pegg, Rosamund Pike, Jean Reno, Stellan Skarsgård, Toni Collette[5].
+En août 2002, il publie son plus grand succès : Le voyage d'Hector ou la recherche du bonheur, publié à plus de deux millions d'exemplaires dans le monde,. Suivi par plusieurs autres ouvrages avec Hector comme personnage principal,.
+En 2014, ce livre a été adapté au cinéma : Hector et la Recherche du bonheur, par Peter Chelsom, avec Simon Pegg, Rosamund Pike, Jean Reno, Stellan Skarsgård, Toni Collette.
 À partir de 2003 François Lelord a vécu au Vietnam, à Hanoï puis à Saïgon, où il a travaillé comme psychiatre pour la fondation Alain-Carpentier.
 Inspiré par ces années, il a publié un roman : La Petite Marchande de souvenirs, aux éditions JC Lattès, en 2013.
 Entre 2008 et 2017, il donné des conférences sur le thème du bonheur dans les Alliances françaises et instituts culturel français de Chine, de Corée, d'Allemagne et de Thaïlande.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Lelord</t>
+          <t>François_Lelord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Ses thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">François Lelord a d'abord écrit des essais qui traitent des thèmes de la psychologie, pour le grand public et les professionnels des ressources humaines, puis des contes, dans la tradition du conte philosophique ou du roman d'apprentissage, comme en particulier les ouvrages de la série des Hector.
 </t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Lelord</t>
+          <t>François_Lelord</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les contes d'un psychiatre ordinaire,Paris, Éd. Odile Jacob (1993)
 La gestion du stress, avec Christophe André et Patrick Légeron,Paris, Éd. Odile Jacob (1998)
